--- a/仕様書・進捗表/クレイジー進捗表.xlsx
+++ b/仕様書・進捗表/クレイジー進捗表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="13230" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="108" windowWidth="23256" windowHeight="13116" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="チームメンバー" sheetId="1" r:id="rId1"/>
@@ -1103,6 +1103,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1130,91 +1157,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2425,16 +2425,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>36019</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>116061</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14248</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>18410</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>224918</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1411781</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>257575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2443,8 +2443,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4742490" y="7355061"/>
-          <a:ext cx="1551214" cy="489857"/>
+          <a:off x="2844534" y="3958718"/>
+          <a:ext cx="1397533" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2488,15 +2488,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>48899</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1409614</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28149</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1388863</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>261257</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2506,8 +2506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4755370" y="9677400"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="2824757" y="4724400"/>
+          <a:ext cx="1394392" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2671,16 +2671,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>40415</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>188739</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1357587</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>36339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19665</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>297596</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1336836</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>145196</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2689,8 +2689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4746886" y="8951739"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="1357587" y="7275339"/>
+          <a:ext cx="1394392" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2726,16 +2726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3239</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>164246</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25010</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>186018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1554453</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>273103</xdr:rowOff>
+      <xdr:colOff>23921</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>294875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2744,8 +2744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4709710" y="8165246"/>
-          <a:ext cx="1551214" cy="489857"/>
+          <a:off x="2855296" y="3234018"/>
+          <a:ext cx="1414054" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2789,16 +2789,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1266265</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1356616</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>224117</xdr:rowOff>
+      <xdr:rowOff>319912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1245515</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>332974</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1335866</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47769</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2807,8 +2807,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9110383" y="8606117"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="2771759" y="8701912"/>
+          <a:ext cx="1394393" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2852,16 +2852,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1284194</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>331694</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1315762</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>305569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1263444</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>59551</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1295012</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33426</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2870,8 +2870,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9128312" y="7951694"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="4146048" y="8687569"/>
+          <a:ext cx="1394393" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2907,16 +2907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1302124</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>69476</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1356552</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>363390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1281374</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>178333</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1335802</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91247</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2925,8 +2925,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9146242" y="7308476"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="1356552" y="7983390"/>
+          <a:ext cx="1394393" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2970,16 +2970,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>782170</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>210670</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1245901</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>335856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>761419</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>319527</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1225149</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63713</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2988,8 +2988,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7057464" y="10497670"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="8321615" y="8717856"/>
+          <a:ext cx="1394391" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3025,16 +3025,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>788894</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>15688</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1322293</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>768143</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>124545</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1301543</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>255174</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3043,8 +3043,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7064188" y="9921688"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="5567722" y="3956317"/>
+          <a:ext cx="1394392" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3088,16 +3088,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>795617</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1372559</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>774866</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>220916</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1351808</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>297116</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3106,8 +3106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7070911" y="9256059"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="4202845" y="3236259"/>
+          <a:ext cx="1394392" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3151,16 +3151,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>802341</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>219636</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1368397</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>143437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>781590</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>328493</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1347646</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>252294</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3169,8 +3169,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077635" y="8601636"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="4198683" y="3953437"/>
+          <a:ext cx="1394392" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3214,16 +3214,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>820270</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>327212</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1299240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>799519</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>55069</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1278489</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109497</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3232,8 +3232,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7095564" y="7947212"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="4129526" y="7239640"/>
+          <a:ext cx="1394392" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3269,16 +3269,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>815788</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1316530</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
+      <xdr:rowOff>10245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>795037</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1295779</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>162645</xdr:rowOff>
+      <xdr:rowOff>119102</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3287,8 +3287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7091082" y="7292788"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="2731673" y="7249245"/>
+          <a:ext cx="1394392" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3448,16 +3448,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1272989</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>163605</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1386200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>327980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1252239</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>272462</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1365450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55837</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3466,8 +3466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9117107" y="9307605"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="1386200" y="8709980"/>
+          <a:ext cx="1394393" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3504,26 +3504,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1290918</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>2241</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1302764</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>300189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1270168</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>111098</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1282015</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28046</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="ホームベース 24"/>
+        <xdr:cNvPr id="26" name="ホームベース 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9135036" y="10670241"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="5548193" y="8682189"/>
+          <a:ext cx="1394393" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3550,7 +3550,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クリア時の</a:t>
+            <a:t>ステージ選択画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3558,8 +3558,9 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タイトル演出</a:t>
-          </a:r>
+            <a:t>各演出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3567,26 +3568,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1286436</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>143434</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1198835</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>333614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1265686</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>252291</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1178084</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61471</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="ホームベース 25"/>
+        <xdr:cNvPr id="27" name="ホームベース 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9130554" y="10049434"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="9689692" y="8715614"/>
+          <a:ext cx="1394392" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3613,17 +3614,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ステージ選択画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>各演出</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>失敗演出</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3631,26 +3623,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>811305</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>94128</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1330617</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>155921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>790554</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>202985</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1309868</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>264778</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="ホームベース 26"/>
+        <xdr:cNvPr id="28" name="ホームベース 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086599" y="11143128"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="5576046" y="4727921"/>
+          <a:ext cx="1394393" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3677,8 +3669,9 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>失敗演出</a:t>
-          </a:r>
+            <a:t>ツールと連動処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3686,26 +3679,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>89645</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123263</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1374961</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>68895</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>232120</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1354211</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>245728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="ホームベース 27"/>
+        <xdr:cNvPr id="29" name="ホームベース 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11071410" y="7362263"/>
-          <a:ext cx="1548073" cy="489857"/>
+          <a:off x="4205247" y="4708871"/>
+          <a:ext cx="1394393" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3732,7 +3725,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ツールと連動処理</a:t>
+            <a:t>全クリ時画面処理</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3742,72 +3735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>90446</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>354585</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1274269</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>289269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>69696</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>82442</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="ホームベース 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11139446" y="7974585"/>
-          <a:ext cx="1557679" cy="489857"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>全クリ時画面処理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>65953</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>234842</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>45203</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>343699</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1253519</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>17126</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3816,8 +3753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11114953" y="8616842"/>
-          <a:ext cx="1557679" cy="489857"/>
+          <a:off x="6934840" y="8671269"/>
+          <a:ext cx="1394393" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4833,13 +4770,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="4:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="4:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="24" t="s">
         <v>0</v>
       </c>
@@ -4848,7 +4785,7 @@
       <c r="G3" s="25"/>
     </row>
     <row r="5" spans="4:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="4:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="9" t="s">
         <v>1</v>
       </c>
@@ -4862,7 +4799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="4:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="26" t="s">
         <v>5</v>
       </c>
@@ -4876,7 +4813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="27"/>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -4888,7 +4825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="27"/>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -4900,7 +4837,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="27" t="s">
         <v>9</v>
       </c>
@@ -4914,7 +4851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="27"/>
       <c r="E11" s="3" t="s">
         <v>11</v>
@@ -4926,7 +4863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="27"/>
       <c r="E12" s="3" t="s">
         <v>12</v>
@@ -4938,7 +4875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="27"/>
       <c r="E13" s="3" t="s">
         <v>13</v>
@@ -4950,7 +4887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="27"/>
       <c r="E14" s="3" t="s">
         <v>14</v>
@@ -4962,7 +4899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="27"/>
       <c r="E15" s="3" t="s">
         <v>15</v>
@@ -4974,7 +4911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="27" t="s">
         <v>31</v>
       </c>
@@ -4988,7 +4925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D17" s="28"/>
       <c r="E17" s="5" t="s">
         <v>34</v>
@@ -5000,7 +4937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="3:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="24" t="s">
         <v>36</v>
       </c>
@@ -5008,7 +4945,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="23" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>38</v>
       </c>
@@ -5016,7 +4953,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>37</v>
       </c>
@@ -5024,12 +4961,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>51</v>
       </c>
@@ -5052,13 +4989,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="24" t="s">
         <v>40</v>
       </c>
@@ -5067,7 +5004,7 @@
       <c r="G3" s="25"/>
     </row>
     <row r="5" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
@@ -5117,201 +5054,193 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="43" t="s">
+    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="31" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="34" t="s">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="46" t="s">
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="47"/>
-    </row>
-    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="44" t="s">
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="30"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="33"/>
+    </row>
+    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="47"/>
-    </row>
-    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="47"/>
-    </row>
-    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="44" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="33"/>
+    </row>
+    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="33"/>
+    </row>
+    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="47"/>
-    </row>
-    <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="45"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="48"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="33"/>
+    </row>
+    <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="34"/>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="39"/>
+    </row>
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="Q7:Q12"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="O9:P10"/>
     <mergeCell ref="J14:J18"/>
     <mergeCell ref="J7:J12"/>
     <mergeCell ref="N7:N12"/>
@@ -5321,6 +5250,14 @@
     <mergeCell ref="K7:M8"/>
     <mergeCell ref="K9:M10"/>
     <mergeCell ref="K11:M12"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="Q7:Q12"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="O9:P10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5332,13 +5269,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="24" t="s">
         <v>61</v>
       </c>
@@ -5347,7 +5284,7 @@
       <c r="G3" s="25"/>
     </row>
     <row r="5" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
@@ -5397,242 +5334,254 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="43" t="s">
+    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="62"/>
       <c r="E7" s="62"/>
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
       <c r="H7" s="62"/>
-      <c r="I7" s="50"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="59" t="s">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="59" t="s">
+      <c r="O7" s="61"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="49" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="44"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="37"/>
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="30"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="57"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="65"/>
-    </row>
-    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="44" t="s">
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="50"/>
+    </row>
+    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
       <c r="I9" s="53"/>
       <c r="J9" s="57"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="60"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="59"/>
       <c r="O9" s="52"/>
       <c r="P9" s="53"/>
-      <c r="Q9" s="65"/>
-    </row>
-    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="44"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="37"/>
+      <c r="Q9" s="50"/>
+    </row>
+    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="30"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="57"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="65"/>
-    </row>
-    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="44" t="s">
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="50"/>
+    </row>
+    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
       <c r="I11" s="53"/>
       <c r="J11" s="57"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="60"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="59"/>
       <c r="O11" s="52"/>
       <c r="P11" s="53"/>
-      <c r="Q11" s="65"/>
-    </row>
-    <row r="12" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="44"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="37"/>
+      <c r="Q11" s="50"/>
+    </row>
+    <row r="12" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="30"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="57"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="65"/>
-    </row>
-    <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="44" t="s">
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="50"/>
+    </row>
+    <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
       <c r="I13" s="53"/>
       <c r="J13" s="57"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="60"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="59"/>
       <c r="O13" s="52"/>
       <c r="P13" s="53"/>
-      <c r="Q13" s="65"/>
-    </row>
-    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="44"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="37"/>
+      <c r="Q13" s="50"/>
+    </row>
+    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="30"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="57"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="65"/>
-    </row>
-    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="44" t="s">
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="50"/>
+    </row>
+    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="30" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
       <c r="I15" s="53"/>
       <c r="J15" s="57"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="60"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="59"/>
       <c r="O15" s="52"/>
       <c r="P15" s="53"/>
-      <c r="Q15" s="65"/>
-    </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="44"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="37"/>
+      <c r="Q15" s="50"/>
+    </row>
+    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="30"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="57"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="65"/>
-    </row>
-    <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="44" t="s">
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="50"/>
+    </row>
+    <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="52"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
       <c r="I17" s="53"/>
       <c r="J17" s="57"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="60"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="59"/>
       <c r="O17" s="52"/>
       <c r="P17" s="53"/>
-      <c r="Q17" s="65"/>
-    </row>
-    <row r="18" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="45"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="37"/>
+      <c r="Q17" s="50"/>
+    </row>
+    <row r="18" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="31"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="58"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="61"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="60"/>
       <c r="O18" s="54"/>
       <c r="P18" s="55"/>
-      <c r="Q18" s="66"/>
+      <c r="Q18" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="O15:P16"/>
+    <mergeCell ref="C17:I18"/>
+    <mergeCell ref="K7:M8"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="K11:M12"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="K15:M16"/>
+    <mergeCell ref="K17:M18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="Q7:Q18"/>
     <mergeCell ref="B15:B16"/>
@@ -5649,18 +5598,6 @@
     <mergeCell ref="C11:I12"/>
     <mergeCell ref="C13:I14"/>
     <mergeCell ref="C15:I16"/>
-    <mergeCell ref="C17:I18"/>
-    <mergeCell ref="K7:M8"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="K11:M12"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="K15:M16"/>
-    <mergeCell ref="K17:M18"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="O13:P14"/>
-    <mergeCell ref="O15:P16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5672,13 +5609,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N24" sqref="N23:N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="24" t="s">
         <v>60</v>
       </c>
@@ -5687,7 +5624,7 @@
       <c r="G3" s="25"/>
     </row>
     <row r="5" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
@@ -5737,89 +5674,89 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="31" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="31" t="s">
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
       <c r="Q7" s="67" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="44"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="30"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
       <c r="Q8" s="68"/>
     </row>
-    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="44" t="s">
+    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
       <c r="Q9" s="68"/>
     </row>
-    <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="45"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
+    <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
       <c r="Q10" s="69"/>
     </row>
-    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>76</v>
       </c>
@@ -5828,7 +5765,7 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="72" t="s">
         <v>75</v>
       </c>
@@ -5837,7 +5774,7 @@
       </c>
       <c r="D13" s="71"/>
     </row>
-    <row r="14" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
       <c r="C14" s="15" t="s">
         <v>80</v>
@@ -5846,7 +5783,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="20">
         <v>4</v>
       </c>
@@ -5857,7 +5794,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="16">
         <v>3</v>
       </c>
@@ -5868,7 +5805,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="16">
         <v>2</v>
       </c>
@@ -5879,7 +5816,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="16">
         <v>1</v>
       </c>
@@ -5890,7 +5827,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="16">
         <v>6</v>
       </c>
@@ -5901,7 +5838,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17">
         <v>5</v>
       </c>
@@ -5912,7 +5849,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="21" t="s">
         <v>81</v>
       </c>

--- a/仕様書・進捗表/クレイジー進捗表.xlsx
+++ b/仕様書・進捗表/クレイジー進捗表.xlsx
@@ -1103,6 +1103,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1121,46 +1163,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1172,12 +1193,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1199,22 +1214,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5055,131 +5055,131 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="40" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="43" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="32" t="s">
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="46" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="30"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="33"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="33"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="33"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="47"/>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="33"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="47"/>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="34"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="29" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5187,13 +5187,13 @@
       <c r="C15" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="39"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J16" s="39"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J17" s="39"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
@@ -5202,7 +5202,7 @@
       <c r="C18" t="s">
         <v>84</v>
       </c>
-      <c r="J18" s="39"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
@@ -5241,6 +5241,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="Q7:Q12"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="O9:P10"/>
     <mergeCell ref="J14:J18"/>
     <mergeCell ref="J7:J12"/>
     <mergeCell ref="N7:N12"/>
@@ -5250,14 +5258,6 @@
     <mergeCell ref="K7:M8"/>
     <mergeCell ref="K9:M10"/>
     <mergeCell ref="K11:M12"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="Q7:Q12"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="O9:P10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5269,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5335,253 +5335,241 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="56" t="s">
+      <c r="C7" s="49"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="49" t="s">
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="61"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="49" t="s">
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="56" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="30"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="50"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="57"/>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="44" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="52"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="53"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="59"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="64"/>
       <c r="O9" s="52"/>
       <c r="P9" s="53"/>
-      <c r="Q9" s="50"/>
+      <c r="Q9" s="57"/>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="50"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="57"/>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="53"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="59"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="64"/>
       <c r="O11" s="52"/>
       <c r="P11" s="53"/>
-      <c r="Q11" s="50"/>
+      <c r="Q11" s="57"/>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="30"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="50"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="57"/>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="53"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="59"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="52"/>
       <c r="P13" s="53"/>
-      <c r="Q13" s="50"/>
+      <c r="Q13" s="57"/>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="30"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="50"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="57"/>
     </row>
     <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="53"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="59"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="52"/>
       <c r="P15" s="53"/>
-      <c r="Q15" s="50"/>
+      <c r="Q15" s="57"/>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="30"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="50"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="57"/>
     </row>
     <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="52"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="53"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="59"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="52"/>
       <c r="P17" s="53"/>
-      <c r="Q17" s="50"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="51"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="O9:P10"/>
-    <mergeCell ref="O11:P12"/>
-    <mergeCell ref="O13:P14"/>
-    <mergeCell ref="O15:P16"/>
-    <mergeCell ref="C17:I18"/>
-    <mergeCell ref="K7:M8"/>
-    <mergeCell ref="K9:M10"/>
-    <mergeCell ref="K11:M12"/>
-    <mergeCell ref="K13:M14"/>
-    <mergeCell ref="K15:M16"/>
-    <mergeCell ref="K17:M18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="Q7:Q18"/>
     <mergeCell ref="B15:B16"/>
@@ -5598,6 +5586,18 @@
     <mergeCell ref="C11:I12"/>
     <mergeCell ref="C13:I14"/>
     <mergeCell ref="C15:I16"/>
+    <mergeCell ref="C17:I18"/>
+    <mergeCell ref="K7:M8"/>
+    <mergeCell ref="K9:M10"/>
+    <mergeCell ref="K11:M12"/>
+    <mergeCell ref="K13:M14"/>
+    <mergeCell ref="K15:M16"/>
+    <mergeCell ref="K17:M18"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="O9:P10"/>
+    <mergeCell ref="O11:P12"/>
+    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="O15:P16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5675,85 +5675,85 @@
       </c>
     </row>
     <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="40" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="40" t="s">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
       <c r="Q7" s="67" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="30"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
       <c r="Q8" s="68"/>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
       <c r="Q9" s="68"/>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
       <c r="Q10" s="69"/>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">

--- a/仕様書・進捗表/クレイジー進捗表.xlsx
+++ b/仕様書・進捗表/クレイジー進捗表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="108" windowWidth="23256" windowHeight="13116" activeTab="2"/>
+    <workbookView xWindow="-930" yWindow="1230" windowWidth="14205" windowHeight="10230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="チームメンバー" sheetId="1" r:id="rId1"/>
@@ -1254,15 +1254,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1423146</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>257735</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1271,8 +1271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3148852" y="2420470"/>
-          <a:ext cx="1411941" cy="504265"/>
+          <a:off x="3137648" y="2420470"/>
+          <a:ext cx="1568824" cy="1994648"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1316,14 +1316,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6723</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>129988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1418664</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>253253</xdr:rowOff>
     </xdr:to>
@@ -1334,8 +1334,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3144370" y="3177988"/>
-          <a:ext cx="1411941" cy="504265"/>
+          <a:off x="4706471" y="3177988"/>
+          <a:ext cx="1568823" cy="504265"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1372,14 +1372,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>24652</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1436593</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>248771</xdr:rowOff>
     </xdr:to>
@@ -1390,8 +1390,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162299" y="3935506"/>
-          <a:ext cx="1411941" cy="504265"/>
+          <a:off x="4706472" y="3935506"/>
+          <a:ext cx="1568822" cy="504265"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1742,16 +1742,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>53788</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>177053</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1465729</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>300318</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>244289</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1760,8 +1760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6329082" y="7035053"/>
-          <a:ext cx="1411941" cy="504265"/>
+          <a:off x="3137648" y="2407024"/>
+          <a:ext cx="1568823" cy="504265"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2292,132 +2292,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1423146</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>257735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="ホームベース 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3163114" y="2420470"/>
-          <a:ext cx="1411941" cy="504265"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面の移行方法</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>仕様書まとめ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1423146</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>257735</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="ホームベース 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3163114" y="2420470"/>
-          <a:ext cx="1411941" cy="504265"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面の移行方法</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>仕様書まとめ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2426,15 +2300,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>14248</xdr:colOff>
+      <xdr:colOff>24813</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>148718</xdr:rowOff>
+      <xdr:rowOff>149678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1411781</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7203</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>257575</xdr:rowOff>
+      <xdr:rowOff>258535</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2443,8 +2317,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2844534" y="3958718"/>
-          <a:ext cx="1397533" cy="489857"/>
+          <a:off x="3162460" y="3959678"/>
+          <a:ext cx="1551214" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2488,14 +2362,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1409614</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15281</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1388863</xdr:colOff>
+      <xdr:colOff>1563354</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>261257</xdr:rowOff>
     </xdr:to>
@@ -2506,8 +2380,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2824757" y="4724400"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="3152928" y="4724400"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2671,16 +2545,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1357587</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>36339</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>354180</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>334415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1336836</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333430</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>145196</xdr:rowOff>
+      <xdr:rowOff>62272</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2689,8 +2563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1357587" y="7275339"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="1923004" y="7192415"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2727,15 +2601,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>25010</xdr:colOff>
+      <xdr:colOff>14446</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>186018</xdr:rowOff>
+      <xdr:rowOff>164246</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>23921</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1565660</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>294875</xdr:rowOff>
+      <xdr:rowOff>273103</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2744,8 +2618,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2855296" y="3234018"/>
-          <a:ext cx="1414054" cy="489857"/>
+          <a:off x="3152093" y="3212246"/>
+          <a:ext cx="1551214" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2789,16 +2663,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1356616</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403413</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>319912</xdr:rowOff>
+      <xdr:rowOff>201705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1335866</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47769</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>382662</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>310562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2807,8 +2681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2771759" y="8701912"/>
-          <a:ext cx="1394393" cy="489857"/>
+          <a:off x="3541060" y="8583705"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2852,16 +2726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1315762</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>398929</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>305569</xdr:rowOff>
+      <xdr:rowOff>197222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1295012</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>33426</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>378179</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>306079</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2870,8 +2744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4146048" y="8687569"/>
-          <a:ext cx="1394393" cy="489857"/>
+          <a:off x="1967753" y="8579222"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2907,16 +2781,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1356552</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>383241</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>363390</xdr:rowOff>
+      <xdr:rowOff>282387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1335802</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>362491</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>91247</xdr:rowOff>
+      <xdr:rowOff>10244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2925,8 +2799,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1356552" y="7983390"/>
-          <a:ext cx="1394393" cy="489857"/>
+          <a:off x="1952065" y="7902387"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -2971,15 +2845,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1245901</xdr:colOff>
+      <xdr:colOff>389964</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>335856</xdr:rowOff>
+      <xdr:rowOff>154640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1225149</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>63713</xdr:rowOff>
+      <xdr:colOff>369214</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>263497</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2988,8 +2862,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8321615" y="8717856"/>
-          <a:ext cx="1394391" cy="489857"/>
+          <a:off x="8234082" y="8536640"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3025,16 +2899,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1322293</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>146317</xdr:rowOff>
+      <xdr:rowOff>172571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1301543</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17350</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>255174</xdr:rowOff>
+      <xdr:rowOff>281428</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3043,8 +2917,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5567722" y="3956317"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="6313395" y="3982571"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3088,16 +2962,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1372559</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>188259</xdr:rowOff>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1351808</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1661</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>297116</xdr:rowOff>
+      <xdr:rowOff>288151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3106,8 +2980,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4202845" y="3236259"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="4728882" y="3227294"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3151,16 +3025,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1368397</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40340</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>143437</xdr:rowOff>
+      <xdr:rowOff>163606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1347646</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19590</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>252294</xdr:rowOff>
+      <xdr:rowOff>272463</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3169,8 +3043,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4198683" y="3953437"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="4746811" y="3973606"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3215,15 +3089,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1299240</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>640</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>136712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1278489</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>109497</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>245569</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3232,8 +3106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4129526" y="7239640"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="3137648" y="2422712"/>
+          <a:ext cx="1568824" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3269,16 +3143,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1316530</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>10245</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1295779</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119102</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>252291</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3287,8 +3161,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2731673" y="7249245"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="4706472" y="2429434"/>
+          <a:ext cx="1568822" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3448,16 +3322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1386200</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>327980</xdr:rowOff>
+      <xdr:rowOff>174811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1365450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>55837</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>378180</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>283668</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3466,8 +3340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1386200" y="8709980"/>
-          <a:ext cx="1394393" cy="489857"/>
+          <a:off x="5105401" y="8556811"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3504,26 +3378,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1302764</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>383242</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>300189</xdr:rowOff>
+      <xdr:rowOff>80683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1282015</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28046</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>362491</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>189540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="ホームベース 25"/>
+        <xdr:cNvPr id="25" name="ホームベース 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5548193" y="8682189"/>
-          <a:ext cx="1394393" cy="489857"/>
+          <a:off x="12933830" y="8462683"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3550,7 +3424,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ステージ選択画面</a:t>
+            <a:t>クリア時の</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3558,9 +3432,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>各演出</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>タイトル演出</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3568,26 +3441,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1198835</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>401171</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>333614</xdr:rowOff>
+      <xdr:rowOff>165846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1178084</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>61471</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380420</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>274703</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="ホームベース 26"/>
+        <xdr:cNvPr id="26" name="ホームベース 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9689692" y="8715614"/>
-          <a:ext cx="1394392" cy="489857"/>
+          <a:off x="6676465" y="8547846"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3614,8 +3487,17 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>失敗演出</a:t>
-          </a:r>
+            <a:t>ステージ選択画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各演出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3623,26 +3505,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1330617</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>155921</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>116540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1309868</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>264778</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>398348</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>225397</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="ホームベース 27"/>
+        <xdr:cNvPr id="27" name="ホームベース 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5576046" y="4727921"/>
-          <a:ext cx="1394393" cy="489857"/>
+          <a:off x="9832040" y="8498540"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3669,9 +3551,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ツールと連動処理</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>失敗演出</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3679,26 +3560,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1374961</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>33615</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>136871</xdr:rowOff>
+      <xdr:rowOff>156881</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1354211</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12864</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>245728</xdr:rowOff>
+      <xdr:rowOff>265738</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="ホームベース 28"/>
+        <xdr:cNvPr id="28" name="ホームベース 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4205247" y="4708871"/>
-          <a:ext cx="1394393" cy="489857"/>
+          <a:off x="6308909" y="4728881"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3725,7 +3606,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>全クリ時画面処理</a:t>
+            <a:t>ツールと連動処理</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3735,16 +3616,72 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1274269</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>289269</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>23210</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>141674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1253519</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>17126</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2460</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>250531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="ホームベース 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4729681" y="4713674"/>
+          <a:ext cx="1548073" cy="489857"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全クリ時画面処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>379718</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>358968</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209229</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3753,8 +3690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6934840" y="8671269"/>
-          <a:ext cx="1394393" cy="489857"/>
+          <a:off x="11361483" y="8482372"/>
+          <a:ext cx="1548073" cy="489857"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3856,16 +3793,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>727823</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>176012</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>630972</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>257655</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>224037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3874,8 +3811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7014323" y="4748012"/>
-          <a:ext cx="1474774" cy="462643"/>
+          <a:off x="3137648" y="3190394"/>
+          <a:ext cx="1568824" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3919,16 +3856,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>734546</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>42661</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>143514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>637695</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>124304</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>225157</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3937,8 +3874,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7021046" y="5376661"/>
-          <a:ext cx="1474774" cy="462643"/>
+          <a:off x="3137648" y="2429514"/>
+          <a:ext cx="1568823" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -3983,16 +3920,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>988920</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>183294</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>160882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>892069</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>264937</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>242525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4001,8 +3938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8847045" y="4755294"/>
-          <a:ext cx="1474774" cy="462643"/>
+          <a:off x="6275294" y="3208882"/>
+          <a:ext cx="3137647" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4046,16 +3983,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1011892</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>257253</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>178812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>915041</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>338896</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>260455</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4064,8 +4001,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8870017" y="5972253"/>
-          <a:ext cx="1474774" cy="462643"/>
+          <a:off x="9412941" y="3226812"/>
+          <a:ext cx="4706471" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4109,16 +4046,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>988360</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>44902</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>891509</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>126545</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>126546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4127,8 +4064,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8846485" y="5378902"/>
-          <a:ext cx="1474774" cy="462643"/>
+          <a:off x="9412942" y="2711903"/>
+          <a:ext cx="4706470" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4172,16 +4109,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1033182</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>314963</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>359787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>936331</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15606</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1568823</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60430</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4190,8 +4127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8891307" y="7172963"/>
-          <a:ext cx="1474774" cy="462643"/>
+          <a:off x="9412941" y="2264787"/>
+          <a:ext cx="4706470" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4235,16 +4172,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>805701</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>58908</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>159761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>708850</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>140551</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>241404</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4253,8 +4190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7092201" y="6535908"/>
-          <a:ext cx="1474774" cy="462643"/>
+          <a:off x="4706471" y="2445761"/>
+          <a:ext cx="1568824" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4298,16 +4235,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1007968</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>96449</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>141272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>911117</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>178092</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>222915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4316,8 +4253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8866093" y="6573449"/>
-          <a:ext cx="1474774" cy="462643"/>
+          <a:off x="15688235" y="3189272"/>
+          <a:ext cx="3137647" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4361,16 +4298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>750793</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>255572</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>653942</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>337215</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>236362</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4379,8 +4316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7037293" y="5970572"/>
-          <a:ext cx="1474774" cy="462643"/>
+          <a:off x="4706471" y="3202719"/>
+          <a:ext cx="1568823" cy="462643"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4425,16 +4362,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>839879</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>299834</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>743029</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>477</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4443,8 +4380,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7126379" y="7157834"/>
-          <a:ext cx="1474775" cy="462643"/>
+          <a:off x="18825882" y="2465294"/>
+          <a:ext cx="1568824" cy="1187823"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -4472,6 +4409,189 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>追加発注画像</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>154718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>236361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="ホームベース 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6275295" y="2440718"/>
+          <a:ext cx="3137646" cy="462643"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ選択画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>イメージ画像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>183854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>265497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="ホームベース 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15688235" y="2469854"/>
+          <a:ext cx="3137647" cy="462643"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ステージ選択画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>本ちゃん用</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1578428</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1568821</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="ホームベース 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22097999" y="2460812"/>
+          <a:ext cx="3147251" cy="1187823"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>予備日</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4770,13 +4890,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="4:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="24" t="s">
         <v>0</v>
       </c>
@@ -4785,7 +4905,7 @@
       <c r="G3" s="25"/>
     </row>
     <row r="5" spans="4:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="4:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D6" s="9" t="s">
         <v>1</v>
       </c>
@@ -4799,7 +4919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="4:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:7" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="26" t="s">
         <v>5</v>
       </c>
@@ -4813,7 +4933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="27"/>
       <c r="E8" s="3" t="s">
         <v>7</v>
@@ -4825,7 +4945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="27"/>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -4837,7 +4957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="27" t="s">
         <v>9</v>
       </c>
@@ -4851,7 +4971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" s="27"/>
       <c r="E11" s="3" t="s">
         <v>11</v>
@@ -4863,7 +4983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="27"/>
       <c r="E12" s="3" t="s">
         <v>12</v>
@@ -4875,7 +4995,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="27"/>
       <c r="E13" s="3" t="s">
         <v>13</v>
@@ -4887,7 +5007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="27"/>
       <c r="E14" s="3" t="s">
         <v>14</v>
@@ -4899,7 +5019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D15" s="27"/>
       <c r="E15" s="3" t="s">
         <v>15</v>
@@ -4911,7 +5031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="27" t="s">
         <v>31</v>
       </c>
@@ -4925,7 +5045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D17" s="28"/>
       <c r="E17" s="5" t="s">
         <v>34</v>
@@ -4937,7 +5057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="3:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="24" t="s">
         <v>36</v>
       </c>
@@ -4945,7 +5065,7 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
     </row>
-    <row r="23" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>38</v>
       </c>
@@ -4953,7 +5073,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>37</v>
       </c>
@@ -4961,12 +5081,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" t="s">
         <v>51</v>
       </c>
@@ -4989,13 +5109,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="24" t="s">
         <v>40</v>
       </c>
@@ -5004,7 +5124,7 @@
       <c r="G3" s="25"/>
     </row>
     <row r="5" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
@@ -5054,7 +5174,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="43" t="s">
         <v>6</v>
       </c>
@@ -5080,7 +5200,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="44"/>
       <c r="C8" s="39"/>
       <c r="D8" s="40"/>
@@ -5098,7 +5218,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="47"/>
     </row>
-    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="44" t="s">
         <v>7</v>
       </c>
@@ -5118,7 +5238,7 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="47"/>
     </row>
-    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="44"/>
       <c r="C10" s="39"/>
       <c r="D10" s="40"/>
@@ -5136,7 +5256,7 @@
       <c r="P10" s="40"/>
       <c r="Q10" s="47"/>
     </row>
-    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="44" t="s">
         <v>8</v>
       </c>
@@ -5156,7 +5276,7 @@
       <c r="P11" s="40"/>
       <c r="Q11" s="47"/>
     </row>
-    <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="45"/>
       <c r="C12" s="41"/>
       <c r="D12" s="42"/>
@@ -5175,7 +5295,7 @@
       <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>78</v>
       </c>
@@ -5183,19 +5303,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>79</v>
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>83</v>
       </c>
@@ -5204,37 +5324,37 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>91</v>
       </c>
@@ -5269,13 +5389,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="24" t="s">
         <v>61</v>
       </c>
@@ -5284,7 +5404,7 @@
       <c r="G3" s="25"/>
     </row>
     <row r="5" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
@@ -5334,7 +5454,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="43" t="s">
         <v>64</v>
       </c>
@@ -5360,7 +5480,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="44"/>
       <c r="C8" s="51"/>
       <c r="D8" s="55"/>
@@ -5378,7 +5498,7 @@
       <c r="P8" s="37"/>
       <c r="Q8" s="57"/>
     </row>
-    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="44" t="s">
         <v>65</v>
       </c>
@@ -5398,7 +5518,7 @@
       <c r="P9" s="53"/>
       <c r="Q9" s="57"/>
     </row>
-    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="44"/>
       <c r="C10" s="51"/>
       <c r="D10" s="55"/>
@@ -5416,7 +5536,7 @@
       <c r="P10" s="37"/>
       <c r="Q10" s="57"/>
     </row>
-    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="44" t="s">
         <v>12</v>
       </c>
@@ -5436,7 +5556,7 @@
       <c r="P11" s="53"/>
       <c r="Q11" s="57"/>
     </row>
-    <row r="12" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="44"/>
       <c r="C12" s="51"/>
       <c r="D12" s="55"/>
@@ -5454,7 +5574,7 @@
       <c r="P12" s="37"/>
       <c r="Q12" s="57"/>
     </row>
-    <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="44" t="s">
         <v>13</v>
       </c>
@@ -5474,7 +5594,7 @@
       <c r="P13" s="53"/>
       <c r="Q13" s="57"/>
     </row>
-    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="44"/>
       <c r="C14" s="51"/>
       <c r="D14" s="55"/>
@@ -5492,7 +5612,7 @@
       <c r="P14" s="37"/>
       <c r="Q14" s="57"/>
     </row>
-    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="44" t="s">
         <v>14</v>
       </c>
@@ -5512,7 +5632,7 @@
       <c r="P15" s="53"/>
       <c r="Q15" s="57"/>
     </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="44"/>
       <c r="C16" s="51"/>
       <c r="D16" s="55"/>
@@ -5530,7 +5650,7 @@
       <c r="P16" s="37"/>
       <c r="Q16" s="57"/>
     </row>
-    <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="44" t="s">
         <v>15</v>
       </c>
@@ -5550,7 +5670,7 @@
       <c r="P17" s="53"/>
       <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="45"/>
       <c r="C18" s="51"/>
       <c r="D18" s="55"/>
@@ -5609,13 +5729,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N24" sqref="N23:N24"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D3" s="24" t="s">
         <v>60</v>
       </c>
@@ -5624,7 +5744,7 @@
       <c r="G3" s="25"/>
     </row>
     <row r="5" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
@@ -5674,7 +5794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="44" t="s">
         <v>32</v>
       </c>
@@ -5700,7 +5820,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="44"/>
       <c r="C8" s="39"/>
       <c r="D8" s="40"/>
@@ -5718,7 +5838,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="68"/>
     </row>
-    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="44" t="s">
         <v>34</v>
       </c>
@@ -5738,7 +5858,7 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="68"/>
     </row>
-    <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="45"/>
       <c r="C10" s="41"/>
       <c r="D10" s="42"/>
@@ -5756,7 +5876,7 @@
       <c r="P10" s="42"/>
       <c r="Q10" s="69"/>
     </row>
-    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>76</v>
       </c>
@@ -5765,7 +5885,7 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="72" t="s">
         <v>75</v>
       </c>
@@ -5774,7 +5894,7 @@
       </c>
       <c r="D13" s="71"/>
     </row>
-    <row r="14" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="28"/>
       <c r="C14" s="15" t="s">
         <v>80</v>
@@ -5783,7 +5903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20">
         <v>4</v>
       </c>
@@ -5794,7 +5914,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="16">
         <v>3</v>
       </c>
@@ -5805,7 +5925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="16">
         <v>2</v>
       </c>
@@ -5816,7 +5936,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16">
         <v>1</v>
       </c>
@@ -5827,7 +5947,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="16">
         <v>6</v>
       </c>
@@ -5838,7 +5958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B20" s="17">
         <v>5</v>
       </c>
@@ -5849,7 +5969,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="21" t="s">
         <v>81</v>
       </c>
